--- a/biology/Botanique/Aegiphila_integrifolia/Aegiphila_integrifolia.xlsx
+++ b/biology/Botanique/Aegiphila_integrifolia/Aegiphila_integrifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegiphila integrifolia est une  espèce arbustive néotropicale, appartenant à la famille des Lamiaceae (anciennement des Verbenaceae).
-On l'appelle en Guyane bois de golette, aigpan kamwi (Palikur)[3].
+On l'appelle en Guyane bois de golette, aigpan kamwi (Palikur).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegiphila integrifolia est un arbuste ou petit arbre, atteignant jusqu'à 8 m de haut.
 Ses branches sont tétragones et contiennent une moëlle. L'intérieur des rameaux, les pétioles et les inflorescences sont densément strigoses et soyeuses.
@@ -530,7 +544,7 @@
 Les anthères sont longues de 1 mm.
 L'ovaire est glabre, de forme oblong-eIlipsoïde, long de 0,5-1 mm, avec le style glabre, parfois avec des poils apprimés, long de 7 mm y compris la bifurcation longue de 2 mm dans les fleurs à style court (10-12 mm dont 4 mm de la bifurcation dans les fleurs à style long).
 Lors de la fructification, le calice est cupuliforme, long d'environ 4 mm pour 6 mm de diamètre.
-Le fruit passe du vert au jaune puis au rouge orangé, globuleux, lisse et brillant mesure environ 8 mm de diamètre[3].
+Le fruit passe du vert au jaune puis au rouge orangé, globuleux, lisse et brillant mesure environ 8 mm de diamètre.
 </t>
         </is>
       </c>
@@ -559,9 +573,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Aegiphila integrifolia dans toute l'Amérique du Sud tropicale[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Aegiphila integrifolia dans toute l'Amérique du Sud tropicale.
 </t>
         </is>
       </c>
@@ -590,15 +606,17 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aegiphila integrifolia est une espèce pionnière localement commune dans la forêt secondaire sur le sable, jusqu'à 1 000 m d'altitude. Elle fleurit et fructifie tout au long de l'année[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aegiphila integrifolia est une espèce pionnière localement commune dans la forêt secondaire sur le sable, jusqu'à 1 000 m d'altitude. Elle fleurit et fructifie tout au long de l'année.
 Aegiphila integrifolia est hétérostylée.
-Les fruits d’Aegiphila integrifolia sont disséminés à Trinidad par les oiseaux comme Tangara gyrola ou Tangara mexicana[4].
-L'influence de l'intensité lumineuse sur les semis de Aegiphila integrifolia a été étudiée : l'exposition brusque au plein soleil de plantules initialement cultivées à l'ombre entraîne une diminution de la photosynthèse nette, mais ce paramètre se rétablit après le développement de nouvelles feuilles au soleil. Le processus d'endurcissement sous des niveaux d'irradiation élevés induit des réponses morpho-anatomiques telles que l'augmentation de l'épaisseur du parenchyme palissadique, la diminution de la surface totale des feuilles, et l'augmentation de la densité stomatique. Ainsi, cette acclimatation physiologique et morpho-anatomique augmente la résistance des plantules, et donc la probabilité de survie lors de la plantation in situ[5].
-On a identifié une nouvelle espèce de parasitoïde de mouche des fruits (Opius hexachaeta Kula et Aguirre, Braconidae), sur des larves de Hexachaeta sp. (en) se nourrissant de graines de Aegiphila integrifolia (Jacq.) B.D. Jacks[6].
-On a étudié la résistance de Aegiphila integrifolia aux fourmis coupeuses de feuilles Atta sexdens rubropilosa[7].
-Le rôle de Aegiphila integrifolia dans la régénération naturelle a été étudié via sa présence dans la banque de graines du sol[8], et dans divers contextes[9],[10],[11],[12],[13],[14],[15].
+Les fruits d’Aegiphila integrifolia sont disséminés à Trinidad par les oiseaux comme Tangara gyrola ou Tangara mexicana.
+L'influence de l'intensité lumineuse sur les semis de Aegiphila integrifolia a été étudiée : l'exposition brusque au plein soleil de plantules initialement cultivées à l'ombre entraîne une diminution de la photosynthèse nette, mais ce paramètre se rétablit après le développement de nouvelles feuilles au soleil. Le processus d'endurcissement sous des niveaux d'irradiation élevés induit des réponses morpho-anatomiques telles que l'augmentation de l'épaisseur du parenchyme palissadique, la diminution de la surface totale des feuilles, et l'augmentation de la densité stomatique. Ainsi, cette acclimatation physiologique et morpho-anatomique augmente la résistance des plantules, et donc la probabilité de survie lors de la plantation in situ.
+On a identifié une nouvelle espèce de parasitoïde de mouche des fruits (Opius hexachaeta Kula et Aguirre, Braconidae), sur des larves de Hexachaeta sp. (en) se nourrissant de graines de Aegiphila integrifolia (Jacq.) B.D. Jacks.
+On a étudié la résistance de Aegiphila integrifolia aux fourmis coupeuses de feuilles Atta sexdens rubropilosa.
+Le rôle de Aegiphila integrifolia dans la régénération naturelle a été étudié via sa présence dans la banque de graines du sol, et dans divers contextes.
 </t>
         </is>
       </c>
@@ -627,10 +645,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'activité antivenin de Aegiphila integrifolia a été testée sur venin brut de Bothrops atrox : ses composés (lupéol, acide bétulinique, β-sitostérol, stigmastérol, mannitol, flavonoïdes, pectolinarigénine et hispiduline) ont partiellement inhibé les réactions protéolytiques, phospholipasiques[16].
-Aegiphila integrifolia contient de la pectolinarigénine (flavonoïde) qui présente des effet neuroprotecteur et anti-inflammatoire, contre l'inflammation induite par les lipopolysaccharides dans les astrocytes[17].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'activité antivenin de Aegiphila integrifolia a été testée sur venin brut de Bothrops atrox : ses composés (lupéol, acide bétulinique, β-sitostérol, stigmastérol, mannitol, flavonoïdes, pectolinarigénine et hispiduline) ont partiellement inhibé les réactions protéolytiques, phospholipasiques.
+Aegiphila integrifolia contient de la pectolinarigénine (flavonoïde) qui présente des effet neuroprotecteur et anti-inflammatoire, contre l'inflammation induite par les lipopolysaccharides dans les astrocytes.
 </t>
         </is>
       </c>
@@ -659,9 +679,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet a décrit pour la première fois Aegiphila integrifolia sous le nom de Manabea arborescens et en a proposé le protologue suivant[18] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet a décrit pour la première fois Aegiphila integrifolia sous le nom de Manabea arborescens et en a proposé le protologue suivant : 
 « 2. MANABEA (arboreſcens) foliis ovatis, acuminatis ; floribus glomeratis, albis. (Tabula 24.)
 Arbor trunco decem-pedali, in ſummitate ramoſo ; ramis &amp; ramulis tetragonis, nodoſis, hinc &amp; inde ſparſis. Folia oppoſita, ovata, acuta, glabra, integerrima, ſuperne viridia, inferne pallide virentia, petiolata. Flores corymbofl, axillares, corymbis oppoſitis; corymbus tripartitus, ramis singulis tripartitis, ad baſim biglanduloſis ; ramulis duobus oppoſitis, florum capitulo terminatis, intermedio unifloro-, flores ſinguli, brevi pedunculati. Corolla alba. Bacca lutea, ſubrotunda, compreſſa, bilocularis.
 Floret variis anni temporibus.
